--- a/workflow.xlsx
+++ b/workflow.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/00028958_uwa_edu_au/Documents/R Projects/LC_report_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47FFA543-5735-4A0B-AB55-F49372B732BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{47FFA543-5735-4A0B-AB55-F49372B732BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{382979FB-BFE6-43CF-90D4-196DF5D04F34}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AC6A33F4-6865-4C7D-9449-096B5F99B398}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +63,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+  <si>
+    <t>Lake Claremont: Report to Town of Claremont and Friends of Lake Claremont</t>
+  </si>
+  <si>
+    <t>Aura Orozco and Andrew Rate, SAgE, UWA</t>
+  </si>
   <si>
     <t>Week beginning</t>
   </si>
@@ -71,100 +77,29 @@
     <t>Task(s)</t>
   </si>
   <si>
+    <t>Similar output</t>
+  </si>
+  <si>
+    <t>R Skills</t>
+  </si>
+  <si>
+    <t>R packages</t>
+  </si>
+  <si>
     <t>Download, curate, and summarize water and sediment data</t>
   </si>
   <si>
-    <t>Similar output</t>
-  </si>
-  <si>
-    <t>Figures 9-16 from Smiths Lake-Charles Veryard report 2018</t>
-  </si>
-  <si>
-    <t>Aura Orozco and Andrew Rate, SAgE, UWA</t>
-  </si>
-  <si>
-    <t>Lake Claremont: Report to Town of Claremont and Friends of Lake Claremont</t>
-  </si>
-  <si>
-    <r>
-      <t>Maps of (1) sample locations; (2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>concentration 'bubble' plots</t>
-    </r>
-  </si>
-  <si>
-    <t>R Skills</t>
-  </si>
-  <si>
-    <t>R packages</t>
+    <t>Tables 1, 2 and 3 from Smiths Lake-Charles Veryard report 2018</t>
+  </si>
+  <si>
+    <t>R markdown
+Data wrangling
+Programming loops
+Advanced Table formatting</t>
   </si>
   <si>
     <t>RcmdrMisc
 flextable</t>
-  </si>
-  <si>
-    <t>Graphics and colours
-Spatial data formats</t>
-  </si>
-  <si>
-    <t>sf
-stars
-viridis</t>
-  </si>
-  <si>
-    <t>car
-diptest
-LaplacesDemon</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Programming loops
-Export to Excel
-Draft graphics &amp; maps</t>
-  </si>
-  <si>
-    <t>Statistical tests of differences between locations or zones</t>
-  </si>
-  <si>
-    <t>Means comparisons
-Boxplots at report-quality
-Making new factors</t>
-  </si>
-  <si>
-    <t>Analysis of relationships</t>
-  </si>
-  <si>
-    <t>Figure 3 and Table 4 from Smiths Lake-Charles Veryard report 2018</t>
-  </si>
-  <si>
-    <t>Tables 1, 2 and 3 from Smiths Lake-Charles Veryard report 2018</t>
-  </si>
-  <si>
-    <t>Correlation
-Regression (maybe)
-Principal component analysis</t>
-  </si>
-  <si>
-    <t>corrplot</t>
   </si>
   <si>
     <r>
@@ -200,21 +135,89 @@
     </r>
   </si>
   <si>
-    <t>Writing report TBA</t>
-  </si>
-  <si>
-    <t>Smiths Lake-Charles Veryard report 2018</t>
-  </si>
-  <si>
-    <t>R markdown
-Data wrangling
-Programming loops
-Advanced Table formatting</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Programming loops
+Export to Excel
+Draft graphics &amp; maps</t>
+  </si>
+  <si>
+    <t>car
+diptest
+LaplacesDemon</t>
+  </si>
+  <si>
+    <r>
+      <t>Maps of (1) sample locations; (2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concentration 'bubble' plots</t>
+    </r>
+  </si>
+  <si>
+    <t>Figures 9-16 from Smiths Lake-Charles Veryard report 2018</t>
+  </si>
+  <si>
+    <t>Graphics and colours
+Spatial data formats</t>
+  </si>
+  <si>
+    <t>sf
+stars
+viridis</t>
+  </si>
+  <si>
+    <t>Statistical tests of differences between locations or zones</t>
+  </si>
+  <si>
+    <t>Figure 3 and Table 4 from Smiths Lake-Charles Veryard report 2018</t>
+  </si>
+  <si>
+    <t>Means comparisons
+Boxplots at report-quality
+Making new factors</t>
   </si>
   <si>
     <t>reshape2
 Rcompanion
 multcompview</t>
+  </si>
+  <si>
+    <t>Analysis of relationships</t>
+  </si>
+  <si>
+    <t>Correlation
+Regression (maybe)
+Principal component analysis</t>
+  </si>
+  <si>
+    <t>corrplot</t>
+  </si>
+  <si>
+    <t>I'll be away for two weeks from the 14th to the 28th of January 2024 beacuse I'll be attending a permaculture course .</t>
+  </si>
+  <si>
+    <t>Writing report TBA</t>
+  </si>
+  <si>
+    <t>Smiths Lake-Charles Veryard report 2018</t>
   </si>
   <si>
     <t>Exporting graphics and tables</t>
@@ -227,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\ d/mm/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,12 +265,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,12 +281,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -322,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -341,16 +344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -366,8 +359,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,211 +606,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E03C944-3257-4BC1-BC9E-45C33CF69664}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>5</v>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57.6">
       <c r="A4" s="1">
         <f>DATE(2023,11,27)</f>
         <v>45257</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="48" customHeight="1">
       <c r="A5" s="1">
         <f>A4+7</f>
         <v>45264</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" ht="48" customHeight="1">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A12" si="0">A5+7</f>
         <v>45271</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
+    <row r="7" spans="1:8" ht="48" customHeight="1" thickBot="1">
+      <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>45278</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>27</v>
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+    <row r="8" spans="1:8" ht="48" customHeight="1">
+      <c r="A8" s="1">
         <f>A7+35</f>
         <v>45313</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="48" customHeight="1">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>45320</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="48" customHeight="1">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>45327</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="48" customHeight="1">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>45334</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="48" customHeight="1">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>45341</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
